--- a/RAAL/Production/Input/GHI_2024-02-09.xlsx
+++ b/RAAL/Production/Input/GHI_2024-02-09.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2699.54</v>
+        <v>2699.47</v>
       </c>
       <c r="H2">
-        <v>5949.24</v>
+        <v>5949.01</v>
       </c>
       <c r="I2">
-        <v>693.3</v>
+        <v>693.33</v>
       </c>
       <c r="J2">
-        <v>676</v>
+        <v>679.4400000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>676</v>
+        <v>679.4400000000001</v>
       </c>
     </row>
   </sheetData>
@@ -872,19 +872,19 @@
         <v>3.06</v>
       </c>
       <c r="I9">
-        <v>26.69</v>
+        <v>26.7</v>
       </c>
       <c r="J9">
         <v>4.41</v>
       </c>
       <c r="K9">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -913,19 +913,19 @@
         <v>87.98999999999999</v>
       </c>
       <c r="I10">
-        <v>387.5</v>
+        <v>387.51</v>
       </c>
       <c r="J10">
         <v>44.14</v>
       </c>
       <c r="K10">
-        <v>22.82</v>
+        <v>26.26</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.82</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,10 +951,10 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>224.67</v>
+        <v>224.68</v>
       </c>
       <c r="I11">
-        <v>612.08</v>
+        <v>612.09</v>
       </c>
       <c r="J11">
         <v>68.95999999999999</v>
@@ -995,19 +995,19 @@
         <v>343.01</v>
       </c>
       <c r="I12">
-        <v>716.13</v>
+        <v>716.12</v>
       </c>
       <c r="J12">
         <v>82.98999999999999</v>
       </c>
       <c r="K12">
-        <v>85.78</v>
+        <v>85.75</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>85.78</v>
+        <v>85.75</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>422.65</v>
+        <v>422.63</v>
       </c>
       <c r="I13">
-        <v>767.15</v>
+        <v>767.11</v>
       </c>
       <c r="J13">
-        <v>90.66</v>
+        <v>90.67</v>
       </c>
       <c r="K13">
-        <v>105.74</v>
+        <v>105.66</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>105.74</v>
+        <v>105.66</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>453.56</v>
+        <v>453.54</v>
       </c>
       <c r="I14">
-        <v>784.3200000000001</v>
+        <v>784.25</v>
       </c>
       <c r="J14">
-        <v>93.37</v>
+        <v>93.38</v>
       </c>
       <c r="K14">
-        <v>113.45</v>
+        <v>113.39</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>113.45</v>
+        <v>113.39</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>432.22</v>
+        <v>432.2</v>
       </c>
       <c r="I15">
-        <v>772.65</v>
+        <v>772.61</v>
       </c>
       <c r="J15">
         <v>91.51000000000001</v>
       </c>
       <c r="K15">
-        <v>108.1</v>
+        <v>108.05</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>108.1</v>
+        <v>108.05</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1159,19 +1159,19 @@
         <v>361.04</v>
       </c>
       <c r="I16">
-        <v>728.79</v>
+        <v>728.77</v>
       </c>
       <c r="J16">
-        <v>84.8</v>
+        <v>84.81</v>
       </c>
       <c r="K16">
-        <v>90.28</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>90.28</v>
+        <v>90.26000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>248.78</v>
+        <v>248.77</v>
       </c>
       <c r="I17">
-        <v>637.29</v>
+        <v>637.26</v>
       </c>
       <c r="J17">
         <v>72.14</v>
       </c>
       <c r="K17">
-        <v>62.2</v>
+        <v>62.19</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>62.2</v>
+        <v>62.19</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1241,7 +1241,7 @@
         <v>113.03</v>
       </c>
       <c r="I18">
-        <v>446.04</v>
+        <v>446.01</v>
       </c>
       <c r="J18">
         <v>50.03</v>
